--- a/职业生涯规划6个代码.xlsx
+++ b/职业生涯规划6个代码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19640" windowHeight="14540" activeTab="5"/>
+    <workbookView windowWidth="22740" windowHeight="14540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>代码等级</t>
   </si>
@@ -27,206 +27,305 @@
     <t>解读文本</t>
   </si>
   <si>
+    <t>总结</t>
+  </si>
+  <si>
     <t>低</t>
   </si>
   <si>
-    <t>专业解读：
-客户对实际操作、动手解决问题的兴趣不强，可能不太喜欢机械、工具类的工作，倾向于避免涉及体力或技术操作的任务。更偏好抽象思考或社交类工作，喜欢用脑力或与人沟通的工作环境。
-贴近生活的语言：
-“你不是那种喜欢动手修东西的人，可能看到螺丝刀和钳子就有点头疼。你更愿意坐下来，思考问题，或者和人聊一聊，找到解决办法。要你修个水龙头可能有点勉强，但如果是需要想点子或者帮助别人，你就特别擅长。”
-分值低的人通常不喜欢动手操作，更愿意从事思考或人际交往类的工作</t>
+    <t xml:space="preserve">🟢 R 0-15（低）—— 你更喜欢思考，而不是动手实践
+✅ 你的特点：
+你更倾向于抽象思考、分析问题，而不是直接去实践。
+你可能更喜欢理论、概念、研究，而不是机械操作、设备管理或体力劳动。
+你更适应安静、知识性、创造性的环境，而不是需要大量手工操作的工作。
+⚠️ 可能的挑战：
+你可能不太喜欢需要大量动手或体力操作的工作，比如维修、装配、机械制造等。
+如果工作过于依赖实践、技术操作，而不是逻辑思考和策略规划，你可能会感到不适应。
+你更喜欢用头脑解决问题，而不是直接用手去尝试。
+📌 大白话总结：
+你更喜欢想清楚、分析透彻再行动，而不是直接上手尝试。你对手工操作、机械设备、工具维修、户外作业等可能不太感兴趣，更倾向于思考、规划、构建理论框架，而不是亲自动手去做一件事情。
+</t>
+  </si>
+  <si>
+    <t>R 低（0-15） → 你更喜欢思考，而不是动手实践，适合抽象、逻辑、规划性工作。</t>
   </si>
   <si>
     <t>中</t>
   </si>
   <si>
-    <t>专业解读：
-客户对实际操作类的工作有一定兴趣，但不会特别强烈。可能喜欢偶尔动手做些简单的修理或任务，但更倾向于把动手操作作为辅助能力，而非核心职业目标。客户具备一定的动手解决问题的能力，但并不依赖它。
-贴近生活的语言：
-“你动手能力还不错，修个家具或者摆弄电子产品对你来说都还行，但你不会天天想着去搞这些东西。你更喜欢在需要的时候去解决动手方面的问题，而不是把它当成生活的重点。”
-分值中等的人可以适应动手类任务，但不会以此为核心职业发展方向。</t>
+    <t>🟡 R 15-20（中等）—— 你喜欢动手，但更倾向于结合思考
+✅ 你的特点：
+你既能动手操作，也能接受思考和规划，喜欢实践和理论相结合的方式。
+你可能不会特别喜欢单纯的体力活或技术活，但你不抗拒实践和执行，尤其是当它们和你的兴趣相关时。
+你更喜欢在规则之内进行操作，而不是完全依赖动手解决问题。
+⚠️ 可能的挑战：
+你可能不喜欢过于复杂、纯技术性的操作，比如长时间机械操作或高强度体力劳动。
+你适合有思考成分的实践工作，而不是完全依靠动手的职业。
+如果工作过于偏理论，你可能会觉得缺乏实践感，但如果过于动手，你也可能会觉得不够挑战性。
+📌 大白话总结：
+你既可以亲自动手实践，也能接受一定程度的思考和规划。你不会是那种特别喜欢机械维修、体力劳动的人，但你也不排斥实际操作。如果一份工作既需要实践又有一定的逻辑思考，你会更感兴趣，比如产品设计、工程管理、实验操作等。</t>
+  </si>
+  <si>
+    <t>R 中等（15-20） → 你能接受动手操作，但更喜欢结合思考，适合理论+实践结合的工作。</t>
   </si>
   <si>
     <t>高</t>
   </si>
   <si>
-    <t>专业解读：
-客户对实际操作、工具使用和体力任务有高度兴趣，喜欢解决具体的、现实的问题，享受动手操作、技术修理等工作。客户更适合那些需要实践技能、操作设备或解决实际问题的职业，如工程、机械、建筑等领域。
-贴近生活的语言：
-“你是个动手达人，看到东西坏了，你可能第一个站出来要修。你喜欢搞些实际的东西，像是修车、建造、调试设备之类的工作特别适合你。你很享受那种看得见、摸得着的成果，感觉特别有成就感。”
-分值高的人动手操作带给他们极大的满足感和成就感。
-R代码（实际型，Realistic） - 分值高
-特点特征：
-动手能力强：喜欢亲自操作，擅长通过动手解决问题。
-现实导向：关注实际、具体的问题，不喜欢理论性的讨论。
-独立自主：喜欢自己动手完成任务，倾向于独立解决问题。
-实用性强：偏爱实用性强的工作，能看到直接的成果。
-技术熟练：擅长掌握并运用工具和机械，可能对机械、电气感兴趣。
-通俗解释：
-你喜欢通过实际操作来解决问题，做事情很有条理，喜欢看到立竿见影的成果。你不是喜欢坐在办公室里讨论理论的那种人，而更愿意实际动手做一些事情，像是修理东西或是制造产品。
-比喻：
-就像一位机械师，你总能找到工具和技术，直接动手解决眼前的问题，而不是光说不练。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户对抽象思维、分析问题的兴趣不高，可能不太喜欢深度的研究、数据分析或复杂的理论性工作。客户更偏向实践或人际互动，而不愿意长时间花在书本、实验室或分析数据上。
-贴近生活的语言：
-“你不是那种会为了解决一个理论问题而坐在那里苦思冥想的人，可能一看到复杂的研究报告或者数学公式就头疼。你更喜欢做些实际的事情，或者与人互动。要你花几个小时研究一个问题，你可能觉得太无聊了。”
-分值低的人更倾向于行动而非思考复杂问题，喜欢直接的工作方式，不喜欢长时间处理抽象概念。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户对研究、分析类工作有一定的兴趣，但并不会特别执着于此。他们能够适应思考、分析和解决问题的工作，尤其是在需要时。但他们不会把所有精力投入到这类工作中，可能在动脑和实际行动之间寻找平衡。
-贴近生活的语言：
-“你挺享受思考和解决问题的，特别是那些需要动点脑筋的任务。你可以在一段时间内专注于分析、研究，但不会让它完全占据你的生活。你喜欢动脑筋解决问题，但同时也希望有些实际行动的机会。”
-分值中等的人既能处理分析和研究任务，也喜欢在实际行动中平衡思考和实践。</t>
-  </si>
-  <si>
-    <t>专业解读：
-I代码得分较高，表明客户对研究、分析和探索知识有明显的兴趣。他们可能喜欢思考复杂问题，乐于通过深入学习和分析来解决问题。你可能对科学、技术、甚至是哲学等方面有兴趣，喜欢通过思维去发现规律和解决问题。
-贴近生活的语言：
-“你天生是个爱钻研的人，看到一个复杂的难题，你可能兴奋地想搞清楚它的来龙去脉。你喜欢花时间思考、分析、实验，解决那些需要动脑筋的问题。你可能会乐在其中地探索一整天，直到找到答案。”
-分值高的人则对深度思考和研究非常感兴趣，乐于探索复杂的知识领域，喜欢挑战和推理。
-I代码（研究型，Investigative） - 分值高
-特点特征：
-好奇心强：对未知的事物充满好奇，喜欢探索和发现新知识。
-逻辑思维：擅长分析问题，思维严谨，喜欢通过推理得出结论。
-独立研究：喜欢独立思考和研究问题，沉迷于思考复杂问题。
-解决问题：善于通过数据和研究来解决抽象或复杂的问题。
-理论导向：倾向于理论性工作，喜欢深入思考问题的根本原理。
-通俗解释：
-你喜欢弄清楚事情的来龙去脉，遇到复杂的问题时，反而觉得这是一个有趣的挑战。你常常沉浸在各种问题的研究中，喜欢找到事物的本质或答案。
-比喻：
-就像一个科学家，总是带着一副放大镜，仔细观察每一个细节，直到找到解决问题的方法。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户对艺术、创意或自我表达的兴趣不高，可能更倾向于追求结构化的工作和理性的思维方式。对于需要发挥创造力和艺术表现的任务，客户可能觉得不适应或不感兴趣。
-贴近生活的语言：
-“你可能不太喜欢什么创意设计或艺术表达的工作，觉得那不是你的强项。像是绘画、写作或者做设计，你可能觉得有点太抽象了，还不如做些有具体规则、能直接看到结果的事儿。”
-分值低的人更倾向于理性和结构化的工作，认为艺术和创意不是他们的强项，喜欢有规则的任务。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户对艺术和创意有一定的兴趣，喜欢偶尔发挥想象力和创造力，但不会全身心投入到艺术领域。他们可能享受一些需要创新的工作，但也喜欢有一定的规则和框架帮助他们组织思路。
-贴近生活的语言：
-“你有时候也挺享受动动脑筋、玩点创意的，像是偶尔写个文章、做点设计什么的。不过你更喜欢有一些框架或规则来引导你，太自由、太抽象的事儿对你来说可能不太有吸引力。”
-分值中等的人对艺术和创意有适当的兴趣，偶尔享受创作的过程，但仍喜欢在规则和框架内发挥</t>
-  </si>
-  <si>
-    <t>专业解读：
-A代码得分较高，表明客户有很强的创造力和艺术表达能力。你可能擅长用艺术形式表达自己的情感和思想，无论是通过写作、绘画、音乐还是设计等领域，你都喜欢有空间去发挥想象力和创造力。
-贴近生活的语言：
-你时常被灵感所驱动，喜欢用创意和艺术的方式表达自己。你可能在某些时候通过艺术或者设计来表达情感，或是在日常生活中注重美感和形式。
-分值高的人有着强烈的创造性需求，乐于通过艺术形式表达自我，喜欢自由、非结构化的环境，适合从事与艺术、设计相关的职业。
-A代码（艺术型，Artistic） - 分值高
-特点特征：
-创造力强：喜欢通过创意的方式表达自己，擅长创新和想象。
-自我表达：乐于通过艺术、音乐、写作等方式传达情感和思想。
-敏锐的审美：对美感有独到的见解，能够欣赏和创作艺术作品。
-自由导向：不喜欢被规则束缚，追求自由和灵感。
-独特视角：看问题的角度独特，常常有独到的见解和表达方式。
-通俗解释：
-你是一个充满创意的人，总是用独特的方式看待世界。你喜欢通过艺术或其他形式表达自己的情感，不喜欢被条条框框束缚，追求自由和个性化的工作环境。
-比喻：
-就像一位艺术家，拿起画笔后，能把脑海中的创意和情感展现在画布上，每一笔都充满了个性和想象力。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">专业解读：
-客户对人际互动或帮助他人可能没有强烈的兴趣，偏向于独立工作或不依赖频繁沟通的任务。可能更喜欢处理数据、技术或逻辑性的工作，而不太愿意花费时间和精力去解决他人的问题。
-贴近生活的语言：
-“你可能不太喜欢那种需要和很多人打交道的工作，像是照顾人、帮助别人这种事儿，可能让你觉得有点累或者不太自在。你更倾向于独立完成任务，不太依赖与他人互动来完成工作。”
-分值低的人更喜欢独立、以技术为主的工作，不太喜欢频繁的人际互动或帮助他人。
-</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户在与他人互动方面有一定的兴趣，愿意帮助他人，但并不会将此作为首要任务。他们在必要时可以很好地与人沟通和协作，但也喜欢在独立和团队工作之间找到平衡。他们能够适应需要一定人际关系的工作，但并不希望过多依赖。
-贴近生活的语言：
-“你不介意和别人一起合作，帮助别人对你来说也是可以接受的，不过你可能不希望这成为你工作的主要内容。有时候你喜欢独立完成任务，有时候也愿意在需要的时候伸出援手。”
-分值中等的人能够在独立工作和帮助他人之间找到平衡，在适当的场合愿意与他人合作和互动。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户在帮助他人、与人沟通和解决人际问题方面有很强的兴趣。他们在团队中感到自在，乐于帮助他人解决问题，并且通过人际互动获得满足感。
-贴近生活的语言：
-“你是那种特别喜欢帮助别人的人。看到别人需要帮助，或者能通过沟通解决问题，你会感到特别有成就感。像是教书、做社工或者做心理咨询，可能对你来说都是很有吸引力的工作，因为这些工作让你有机会通过自己的努力改变别人的生活。”
-分值高的人对与人交往和帮助他人有强烈兴趣，倾向于从事需要高度人际互动、关怀和支持他人的工作。
-S代码（社会型，Social） - 分值高
-特点特征：
-帮助他人：有强烈的帮助他人的愿望，乐于助人。
-善于沟通：擅长与人交流，能够理解并回应他人的需求。
-团队合作：喜欢在团队中工作，能够融入群体并带动团队。
-情感敏锐：能够察觉他人的情绪，具有同理心和理解力。
-人际互动：喜欢与人打交道，工作中注重人际关系。
-通俗解释：
-你是个非常关心他人感受的人，喜欢帮助别人，特别擅长和人打交道。你会倾听他人的需求，并尽力提供帮助，通常能与人建立深厚的信任关系。
-比喻：
-就像一位心理咨询师，能够倾听别人的心声，给予安慰和帮助，让他们感到被理解和支持。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户对领导和管理工作可能兴趣不大，不太愿意去承担风险或主动去影响他人。可能更倾向于在稳定、明确的工作环境中工作，不喜欢竞争或过多的责任感。对于需要决策和承担风险的任务，客户可能会感到压力或不太自在。
-贴近生活的语言：
-“你可能不太喜欢站在前面做决定，或者给别人指挥安排任务。你更喜欢按照既定的规则做事，或者在一个稳定的环境里工作，不太愿意去冒险或承担太多的责任。管理别人可能让你觉得有点累。”
-分值低的客户更喜欢稳定的工作环境，避免竞争和领导责任，可能更适合技术性或支持性的角色。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户在某些情况下愿意承担领导角色，具备一定的说服能力和管理技能，但不会将其作为主要兴趣。在需要时，他们可以影响他人或参与决策，但也同样享受稳定、常规的工作环境。客户既能够在团队中发挥领导作用，也可以扮演跟随者的角色。
-贴近生活的语言：
-“你不介意有时候承担领导的角色，特别是在需要的时候你也能做出决策。虽然你并不追求时刻站在最前面，但在适当的时候你会站出来带领团队。你喜欢在领导和独立工作之间找到一个平衡。”
-分值中等的客户能够在需要时承担管理角色，但也能适应平稳的环境，他们在领导和稳定之间保持平衡。</t>
-  </si>
-  <si>
-    <t>专业解读：
-客户对领导、管理、影响他人非常有兴趣，通常愿意承担责任，具备很强的决策能力和冒险精神。他们喜欢竞争、挑战，适合从事商业管理、销售、市场营销等需要高度领导能力和说服力的工作。他们往往在企业环境中感到如鱼得水，乐于影响他人并通过决策推动事情发展。
-贴近生活的语言：
-“你是那种特别喜欢站出来带领大家前进的人，喜欢做决策，承担责任。看到机会，你会愿意抓住，并且有很强的说服力。你可能特别适合做管理、销售或者创业，因为这些工作给你机会去展示你的领导才能和影响力。”
-分值高的客户具有强烈的领导欲望，喜欢影响他人，乐于承担责任和冒险，适合在需要决策和竞争的工作中发光发热。
-E代码（企业型，Enterprising） - 分值高
-特点特征：
-领导力强：喜欢引导和激励他人，擅长领导团队。
-决策能力：擅长做出快速决策，能够在压力下推动事情进展。
-结果导向：注重目标和成果，喜欢看到任务按时完成。
-冒险精神：乐于接受挑战，敢于承担风险。
-说服能力：擅长与人沟通，能够影响他人的观点和决策。
-通俗解释：
-你是个天生的领导者，喜欢掌控全局并带领团队向前迈进。你擅长做决定，并且不怕承担风险，总是勇于接受挑战，目标明确。
-比喻：
-就像一个企业家，站在前线，指挥团队完成任务，并乐于迎接每一个新的挑战，追求成功。</t>
-  </si>
-  <si>
-    <t>专业解读：
-分值低表明客户对结构化的工作环境不太感兴趣，可能不喜欢处理细节和遵循规则的工作。他们更倾向于自由、灵活的环境，可能喜欢在充满变化和创新的领域中工作，反感过度的规范和重复性任务。
-贴近生活的语言：
-“你可能不是很喜欢那些规规矩矩、按部就班的工作。让你整天坐在桌前处理表格或遵守一大堆规则，可能会让你感到无聊。你更喜欢有创意、有变化的环境，能够灵活地处理事情。”
-分值低的客户更喜欢灵活、自由的工作环境，不喜欢过度依赖规则和结构。</t>
-  </si>
-  <si>
-    <t>专业解读：
-分值中等的客户能够接受一定程度的结构化工作，他们既可以遵循规则，也喜欢在规则框架内寻找灵活性。他们能够在常规任务和创意性任务之间找到平衡，适应稳定和变化的工作环境。
-贴近生活的语言：
-“你可以处理那些有明确流程的工作，但你不介意在其中加入一些自己的方法。既能遵守规则，又能在需要的时候找到灵活的解决方案。你喜欢工作有一定的结构，但也希望偶尔有一些变化来让事情更有趣。”
-分值中等的客户能够适应既有组织性又有灵活性的工作，能够平衡规则和自由度。</t>
-  </si>
-  <si>
-    <t>专业解读：
-C代码得分较高，表明客户在有结构和秩序的环境中表现得很舒适。他们可能喜欢有条理、可预测的工作，擅长处理细节和遵守规章制度。你对细致的工作有耐心，适合从事需要高度组织性的任务。
-贴近生活的语言：
-“你喜欢一切都有条不紊，按计划进行。你能把事情处理得井井有条，特别擅长跟进细节和数据。那种需要规矩多、流程清晰的工作，适合你，因为你会觉得做这些事让人踏实。”
-分值高的客户则偏爱有条理、结构化的工作，适合处理数据、细节和严格遵守流程的工作。
-C代码（传统型，Conventional） - 分值高
-特点特征：
-有条理：喜欢按步骤工作，擅长组织和管理任务。
-细节导向：注重细节，擅长处理数据和文件。
-规则意识：遵循规则，喜欢有明确流程和规范的环境。
-秩序感强：喜欢有组织的、结构化的工作，排斥混乱。
-责任心强：非常负责，确保工作按时按要求完成。
-通俗解释：
-你喜欢井井有条的工作环境，做事情很有计划，喜欢按部就班完成任务。对于你来说，规则是用来确保事情顺利完成的，所以你特别擅长处理复杂的细节和数据。
-比喻：
-就像一位会计师，能够在复杂的账单中找到条理，确保一切都精确无误，每个细节都处理得完美无缺。</t>
+    <t>🔴 R 20以上（高）—— 你是个行动派，喜欢通过实践解决问题
+✅ 你的特点：
+你喜欢直接动手，而不是光靠理论思考，更愿意通过实践找答案。
+你适合需要实际操作、执行能力强的工作，比如技术操作、机械维修、产品制造、户外工作、建筑工程等。
+你更喜欢结果导向的任务，觉得**“做”比“想”更重要**，更倾向于边做边调整，而不是先想好所有细节再开始。
+⚠️ 可能的挑战：
+你可能对理论性、过度抽象的工作不太感兴趣，比如纯学术研究、哲学、数据分析等。
+如果一份工作没有实际动手操作的部分，而是纯粹的会议、规划、管理，你可能会觉得缺乏成就感。
+你有时候可能会太快行动，而忽略了长远规划，需要注意平衡。
+📌 大白话总结：
+你是个典型的行动派，比起坐在那里思考一个问题，你更喜欢直接动手试试看。你喜欢有实际成果的工作，而不是纯粹的概念推导，比如建筑、维修、工程、技术操作、运动训练等。你不喜欢一份工作只有理论而没有实际操作，更喜欢在真实环境中摸索、解决问题、看到结果。</t>
+  </si>
+  <si>
+    <t>R 高（20以上） → 你是个行动派，喜欢动手解决问题，适合技术、实践、执行类工作。</t>
+  </si>
+  <si>
+    <t>🟢 I 0-15（低）—— 你更喜欢实践，而不是抽象思考
+✅ 你的特点：
+你更喜欢直接行动，而不是长时间坐着研究一个概念。
+你可能对理论分析、数据计算、科学推导不太感兴趣，更喜欢实际应用。
+你更适合具体、实用、可见的事情，而不是纯粹的知识探索。
+⚠️ 可能的挑战：
+如果工作需要长时间分析数据、研究理论、阅读学术论文，你可能会觉得枯燥。
+你更擅长解决现实问题，而不是深入研究问题背后的逻辑。
+你可能会觉得**“过度思考”浪费时间，更愿意动手去试，而不是先研究透彻再做**。
+📌 大白话总结：
+你不太喜欢整天坐在书桌前研究复杂的理论，也不太享受长时间的数据分析。对你来说，直接做、看到结果比慢慢研究更重要。你更喜欢实用的知识，而不是纯粹的逻辑推理，如果一份工作需要你大量思考、推演，而没有实际操作，你可能会觉得无聊。</t>
+  </si>
+  <si>
+    <t>I 低（0-15） → 你更喜欢实践，而不是抽象思考，更适合直接操作、动手执行的工作。</t>
+  </si>
+  <si>
+    <t>🟡 I 15-20（中等）—— 你喜欢思考，但更倾向于结合实践
+✅ 你的特点：
+你对研究和分析有一定兴趣，但你更希望这些知识可以直接应用。
+你不会特别沉迷于纯理论推导，但你也不抗拒深入思考和探索。
+你可能喜欢用逻辑思考解决现实问题，而不是单纯为了学术研究。
+⚠️ 可能的挑战：
+你可能不喜欢过度抽象、难以理解的理论问题，更喜欢和现实世界有联系的研究。
+你适合逻辑+实践结合的任务，比如数据分析、工程管理、策略制定，而不是纯粹的科学研究。
+如果一份工作太过偏向动手实践，而不需要思考，你也会觉得缺乏挑战性。
+📌 大白话总结：
+你喜欢思考，但不喜欢空想，更愿意用分析能力去解决实际问题。你不是那种天天钻进书本里研究学术理论的人，但如果一件事需要动脑分析，你还是愿意去想清楚。你更适合一边思考一边实践的工作，而不是纯粹的理论研究或者完全没有思考空间的执行型工作。</t>
+  </si>
+  <si>
+    <t>I 中等（15-20） → 你喜欢思考，但更倾向于结合实践，适合逻辑+应用型的职业。</t>
+  </si>
+  <si>
+    <t>🔴 I 20以上（高）—— 你是一个深度思考者，喜欢研究和推理
+✅ 你的特点：
+你喜欢深入研究问题的本质，而不仅仅是表面现象，愿意花时间钻研复杂的概念。
+你擅长逻辑分析、数据推理、理论推导，喜欢通过思考找到更优的解决方案。
+你可能会对数学、科学、哲学、编程、统计、策略分析等领域感兴趣，喜欢推演和预测。
+⚠️ 可能的挑战：
+你可能会思考太多，而行动太少，容易陷入“分析瘫痪”，想得太多而迟迟不做决定。
+你可能会对现实中的琐碎事务感到不耐烦，更喜欢抽象概念，而不是动手操作。
+你可能不喜欢过于机械化、重复性高的工作，更倾向于需要思考和解决难题的职业。
+📌 大白话总结：
+你是一个喜欢钻研、擅长逻辑分析的人，比起直接动手做事，你更喜欢先想清楚、找到最佳方案，再去执行。你可能对数据、理论、科学推导、复杂系统感兴趣，喜欢从深层逻辑上理解事物，而不仅仅是接受表面的结论。如果工作没有足够的思考空间，你可能会觉得无聊。</t>
+  </si>
+  <si>
+    <t>I 高（20以上） → 你是一个深度思考者，喜欢研究和推理，适合数据分析、科学研究、编程、策略制定等工作</t>
+  </si>
+  <si>
+    <t>🟢 A 0-15（低）—— 你更喜欢结构化、务实的工作，而不是创意和艺术表达
+✅ 你的特点：
+你更喜欢逻辑清晰、有规则可循的事物，而不是开放式、富有创造力的任务。
+你更倾向于理性分析，而不是凭直觉或情感创作，喜欢有明确方法、可预测性的工作。
+你可能不太关注艺术、美学、创意表达，更在意事物的实用性和逻辑性。
+⚠️ 可能的挑战：
+如果工作需要你即兴创作、创新、自由发挥，你可能会感到不适应或没兴趣。
+你可能会觉得艺术类、设计类、文学类的工作缺乏明确的标准，过于主观。
+你可能更擅长执行、分析、管理，而不是创意策划、艺术创作。
+📌 大白话总结：
+你不太喜欢天马行空的创意工作，更喜欢有清晰结构和明确方向的任务。你更适合稳定、逻辑清晰、规则明确的环境，而不是需要大量自由发挥的艺术领域。如果让你做设计、绘画、写作，你可能会觉得“不知道从哪下手”或者“太随意没标准”。</t>
+  </si>
+  <si>
+    <t>A 低（0-15） → 你更喜欢结构化、务实的工作，而不是创意和艺术表达，适合逻辑清晰、规则明确的任务。</t>
+  </si>
+  <si>
+    <t>🟡 A 15-20（中等）—— 你喜欢有一定创意，但更倾向于在规则内创新
+✅ 你的特点：
+你有一定的创造力和审美能力，但不喜欢完全没有规则的艺术创作。
+你更适合在已有框架下进行改进和优化，而不是完全自由发挥。
+你可能对设计、美感、个性化表达感兴趣，但不会把它作为核心动力。
+⚠️ 可能的挑战：
+你可能不喜欢过于抽象、纯粹依赖情感的创作，更希望有一些可执行的标准。
+你适合创意+逻辑结合的工作，比如商业设计、市场策划，而不是完全开放的艺术创作。
+如果工作太过于死板、缺乏灵活性，你可能会觉得缺乏乐趣。
+📌 大白话总结：
+你喜欢有点创意的工作，但不能太自由、太混乱。如果给你一个有框架的任务，比如让你优化一个设计、改进一个方案，你会觉得很有意思。但如果让你从零开始、完全自由创作，你可能会觉得“没头绪”或者“不知道做到什么程度才算好”。</t>
+  </si>
+  <si>
+    <t>A 中等（15-20） → 你喜欢有一定创意，但更倾向于在规则内创新，适合结合逻辑和创造力的岗位。</t>
+  </si>
+  <si>
+    <t>🔴 A 20以上（高）—— 你是一个有创造力的人，喜欢自由表达和艺术创新
+✅ 你的特点：
+你喜欢个性化表达，讨厌千篇一律的东西，希望用创意和美感影响世界。
+你擅长视觉、音乐、文学、戏剧、策划等需要创造力的工作，比起执行标准流程，你更希望有发挥空间。
+你更倾向于用直觉、感受来做决策，而不是完全依赖逻辑和规则。
+⚠️ 可能的挑战：
+你可能不太喜欢高度结构化、规则严格的环境，如果工作过于机械化，你可能会觉得乏味。
+你可能更关注情感和表达，而不是逻辑和实用性，有时候会因为追求完美而拖延。
+你可能需要找到既能自由发挥、又能产生实际价值的工作，否则可能会觉得“有创意但没有用”。
+📌 大白话总结：
+你是个有创造力、喜欢表达自己的人，不喜欢被条条框框限制。你可能会对设计、写作、音乐、戏剧、绘画感兴趣，喜欢让世界变得更美或更有趣。如果工作只是一成不变、重复执行，没有发挥空间，你可能会很快失去动力。你希望做的事情能有个人风格，而不是标准化的流水线工作。</t>
+  </si>
+  <si>
+    <t>A 高（20以上） → 你是一个有创造力的人，喜欢自由表达和艺术创新，适合设计、策划、艺术类工作。</t>
+  </si>
+  <si>
+    <t>🟢 S 0-15（低）—— 你更喜欢独立工作，而不是频繁社交
+✅ 你的特点：
+你更喜欢独立完成任务，而不是依赖团队协作。
+你在社交方面可能更偏向功能性交流，而不是享受人际互动本身。
+你可能觉得与人打交道是一种必要手段，而不是你的兴趣所在。
+⚠️ 可能的挑战：
+如果工作需要大量的社交、沟通、客户互动，你可能会觉得疲惫。
+你可能更喜欢逻辑思维、个人创造，而不是依赖团队决策和人际关系。
+如果团队过于注重情感交流，而不是高效执行，你可能会觉得不适应。
+📌 大白话总结：
+你更喜欢一个人独立完成任务，不太依赖社交来获得能量。你可以处理必要的交流，但如果工作需要全天和人打交道、开会、社交互动，你可能会觉得累。你喜欢高效、目标导向的沟通，而不是纯粹为了建立关系而聊天。</t>
+  </si>
+  <si>
+    <t>S 低（0-15） → 你更喜欢独立工作，而不是频繁社交，适合技术、逻辑、个人创造类工作。</t>
+  </si>
+  <si>
+    <t>🟡 S 15-20（中等）—— 你喜欢社交，但更倾向于有目的的沟通
+✅ 你的特点：
+你不抗拒社交，但也不依赖社交来获得能量，更倾向于有意义的交流。
+你在需要合作的环境下能够很好地适应，但你也可以独立完成工作。
+你擅长建立和维护人际关系，但不会刻意去社交。
+⚠️ 可能的挑战：
+如果工作太过孤立，没有任何团队合作，你可能会觉得缺乏互动。
+你适合需要一定社交，但仍然有专业技能支持的岗位，比如教育、咨询、管理，而不是完全依赖人际关系的销售类工作。
+你不喜欢过度的情感消耗型社交工作，比如心理咨询、社工等需要长期与人建立深度情感链接的职业可能会让你感到压力。
+📌 大白话总结：
+你不排斥社交，也能和团队愉快合作，但你更喜欢有目标、有意义的沟通，而不是单纯为了社交而社交。你既能自己完成任务，也能与他人配合，但如果工作完全没有社交互动，你可能会觉得有点孤单。</t>
+  </si>
+  <si>
+    <t>S 中等（15-20） → 你喜欢社交，但更倾向于有目的的沟通，适合社交+专业结合的职业。</t>
+  </si>
+  <si>
+    <t>🔴 S 20以上（高）—— 你是一个社交型人才，喜欢与人互动
+✅ 你的特点：
+你喜欢和人打交道，愿意花时间建立人际关系，并在交流中获得能量。
+你擅长理解他人的需求、提供帮助，并能很好地处理人际关系。
+你更喜欢团队合作，而不是单独完成任务，喜欢在互动中创造价值。
+⚠️ 可能的挑战：
+如果工作过于独立、没有社交互动，你可能会觉得缺乏动力。
+你可能更关注人，而不是纯粹的任务，有时候容易因为人际关系而影响决策。
+你可能不喜欢完全数据、技术、研究导向的工作，而更偏向沟通、协调、服务类的职业。
+📌 大白话总结：
+你是个天生的社交型人才，喜欢和人互动，愿意帮助别人。比起一个人闷头干活，你更喜欢在交流、合作中推动事情发展。如果让你长期做独立、没有社交的工作，你可能会觉得闷得慌。你更喜欢团队氛围好、需要互动和沟通的环境，而不是完全依赖个人努力的岗位。</t>
+  </si>
+  <si>
+    <t>S 高（20以上） → 你是一个社交型人才，喜欢与人互动，适合团队协作、沟通、帮助他人的岗位。</t>
+  </si>
+  <si>
+    <t>🟢 E 0-15（低）—— 你更喜欢执行，而不是领导
+✅ 你的特点：
+你更倾向于专注完成自己的任务，而不是去管理或影响他人。
+你可能不太喜欢竞争激烈、充满挑战的环境，更喜欢稳定、有序的工作方式。
+你更关注自己的专业能力，而不是如何带领团队、制定战略或推动决策。
+⚠️ 可能的挑战：
+如果工作需要你主动推动项目、管理团队，你可能会觉得压力大或不自在。
+你可能不喜欢谈判、说服、争取资源，而更喜欢安静、专注的工作环境。
+如果环境太过竞争性，你可能会觉得不适应，甚至有些抗拒。
+📌 大白话总结：
+你更喜欢安稳地做自己擅长的事情，而不是去争夺话语权或主导团队。如果让你做管理、带领团队，你可能会觉得压力大，甚至不太愿意承担责任。你更喜欢在自己的领域里深耕，而不是去思考如何影响他人、制定商业策略或者竞争获胜。</t>
+  </si>
+  <si>
+    <t>E 低（0-15） → 你更喜欢执行，而不是领导，适合稳定、专业性强、不需要竞争和管理的岗位。</t>
+  </si>
+  <si>
+    <t>🟡 E 15-20（中等）—— 你有一定领导意识，但更喜欢在专业领域发光
+✅ 你的特点：
+你不排斥承担一定的管理责任，但你更喜欢通过专业能力来获得影响力，而不是单纯依靠权力和决策力。
+你可以在特定情况下承担领导角色，但不会主动去争取权力，更喜欢在自己擅长的领域发挥作用。
+你适合在团队中担任关键角色，而不是完全主导所有决策。
+⚠️ 可能的挑战：
+如果工作完全没有自主权，而只是被动执行，你可能会觉得缺乏成长空间。
+你可能不喜欢极端竞争性环境，但也不希望自己的努力被埋没。
+如果需要全职做领导管理，而不是结合专业能力发挥影响力，你可能会感到不适应。
+📌 大白话总结：
+你不排斥领导别人，但也不想把全部精力都放在竞争和管理上。你更喜欢用自己的专业能力获得影响力，而不是单纯依靠“管理职务”去发挥作用。如果你处在一个有自主权但不需要过度竞争的环境，你会更有动力。</t>
+  </si>
+  <si>
+    <t>E 中等（15-20） → 你有一定领导意识，但更喜欢在专业领域发光，适合技术+管理结合的岗位。</t>
+  </si>
+  <si>
+    <t>🔴 E 20以上（高）—— 你是一个目标驱动者，喜欢影响他人
+✅ 你的特点：
+你喜欢主动推动事情发展，而不是被动等待指令，更愿意承担责任、主导决策。
+你擅长影响别人、调动资源、制定战略，在团队中更倾向于带领而不是被带领。
+你对商业、市场、管理、谈判、决策有一定的兴趣，喜欢有挑战、有竞争的环境。
+⚠️ 可能的挑战：
+你可能不喜欢被严格管理，喜欢有更大的自主权和决策权，否则可能会觉得受限制。
+你可能更关注目标和结果，而不是过程，在某些情况下可能会忽略细节或团队情绪。
+你适合快节奏、高挑战的环境，但如果工作太过稳定、缺乏竞争，你可能会觉得无聊或缺乏动力。
+📌 大白话总结：
+你是一个天生的领导者，喜欢挑战、喜欢竞争，更喜欢主导而不是被动执行。你希望自己的工作能带来影响，而不仅仅是完成任务，你更愿意制定策略、推动发展，而不是只是听从安排。如果工作缺乏挑战或你无法主导，你可能会感到不耐烦或失去动力。</t>
+  </si>
+  <si>
+    <t>E 高（20以上） → 你是一个目标驱动者，喜欢影响他人，适合管理、商业、市场、创业、战略规划类岗位。</t>
+  </si>
+  <si>
+    <t>🟢 C 0-15（低）—— 你喜欢灵活自由，而不是条条框框
+✅ 你的特点：
+你更喜欢灵活、多变的环境，而不是被固定的规则限制。
+你更倾向于创造新方法，而不是按照既定流程执行任务。
+你可能更喜欢探索、创新，而不是在稳定的体系中工作。
+⚠️ 可能的挑战：
+你可能不太喜欢严格的规则、重复性的工作，如果一份工作需要大量细节管理、数据录入、流程执行，你可能会觉得枯燥。
+你更适合开放性、探索性的任务，而不是高度结构化的环境。
+如果工作过于死板、没有灵活性，你可能会觉得束缚和缺乏创造力。
+📌 大白话总结：
+你不喜欢被规矩束缚，更喜欢自由发挥。如果一个工作需要严格按照规定流程来做，不能有任何创新，你可能会觉得很无聊。你更希望有变化、挑战和灵活度，而不是日复一日地执行同样的任务。</t>
+  </si>
+  <si>
+    <t>C 低（0-15） → 你喜欢灵活自由，而不是条条框框，适合探索性、创新性、灵活性强的岗位。</t>
+  </si>
+  <si>
+    <t>🟡 C 15-20（中等）—— 你喜欢秩序，但也需要一定的灵活性
+✅ 你的特点：
+你可以适应有一定规则和结构的环境，但你希望这些规则能有调整空间。
+你喜欢有条理的工作方式，但不喜欢过度死板的流程，希望在稳定和灵活之间找到平衡。
+你擅长管理信息、整理数据，但也希望有一定的决策权，而不是完全按照指令执行。
+⚠️ 可能的挑战：
+如果工作太随意、完全没有框架，你可能会觉得混乱，没有方向。
+如果工作过于程序化、只需要重复执行，没有创新空间，你可能会觉得缺乏挑战。
+你适合有结构但允许一定调整和优化的工作，而不是极端的“完全自由”或“完全死板”环境。
+📌 大白话总结：
+你喜欢有秩序但不喜欢死板，希望既有规则可循，又能根据情况调整。如果工作完全没有方向，你会觉得焦虑，但如果工作毫无变化，你又会觉得单调。你适合既有流程管理，又允许适度优化的岗位，比如项目管理、运营管理、数据分析等。</t>
+  </si>
+  <si>
+    <t>C 中等（15-20） → 你喜欢秩序，但也需要一定的灵活性，适合既有规则又允许优化的工作。</t>
+  </si>
+  <si>
+    <t>🔴 C 20以上（高）—— 你是一个高度条理化的人，喜欢稳定有序
+✅ 你的特点：
+你喜欢有计划、有结构的环境，擅长整理、归纳、执行任务。
+你更倾向于按照标准流程执行，而不是随意变更工作方式，喜欢有明确的规则和系统。
+你擅长数据管理、信息分类、行政事务、文档整理等条理性工作。
+⚠️ 可能的挑战：
+如果环境太过混乱、缺乏清晰的规定，你可能会感到焦虑或不适应。
+你可能不太喜欢高度创新、变化频繁、需要灵活应对的工作，更偏向有条理的任务。
+你可能更适合稳定、流程化、可预测的环境，而不是高度开放、依赖随机性的工作。
+📌 大白话总结：
+你是一个喜欢规则、有条理的人，喜欢按照计划一步步执行。如果一个工作太随意、没有固定流程、总是变动，你可能会觉得压力很大。你更适合稳定、有清晰要求的环境，比如数据管理、财务、行政、档案管理等工作，而不是需要频繁调整、随时变换策略的岗位。</t>
+  </si>
+  <si>
+    <t>C 高（20以上） → 你是一个高度条理化的人，喜欢稳定有序，适合数据管理、行政、财务、流程优化等岗位。</t>
   </si>
 </sst>
 </file>
@@ -858,9 +957,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1405,48 +1507,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="C4" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="32.7692307692308" customWidth="1"/>
-    <col min="2" max="2" width="28.9519230769231" customWidth="1"/>
+    <col min="2" max="2" width="48.0769230769231" customWidth="1"/>
+    <col min="3" max="3" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="370" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="305" customHeight="1" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="370" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1458,112 +1573,125 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="C4" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="68.2692307692308" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.9134615384615" customWidth="1"/>
+    <col min="3" max="3" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="303" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="303" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:3">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="32" ht="20.4" spans="1:1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1">
       <c r="A41"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43"/>
@@ -1572,7 +1700,7 @@
       <c r="A44"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46"/>
@@ -1586,112 +1714,125 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="70.0192307692308" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1057692307692" customWidth="1"/>
+    <col min="3" max="3" width="22.1346153846154" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="336" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="336" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="33" ht="20.4" spans="1:1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44"/>
@@ -1700,7 +1841,7 @@
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47"/>
@@ -1714,111 +1855,125 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="65.2211538461538" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7019230769231" customWidth="1"/>
+    <col min="3" max="3" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="409.5" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" ht="20.4" spans="1:1">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="33" ht="20.4" spans="1:1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44"/>
@@ -1827,7 +1982,7 @@
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47"/>
@@ -1841,112 +1996,125 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="63.7788461538462" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.9423076923077" customWidth="1"/>
+    <col min="2" max="2" width="40.2788461538462" customWidth="1"/>
+    <col min="3" max="3" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="387" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" ht="387" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
     </row>
     <row r="33" ht="20.4" spans="1:1">
-      <c r="A33" s="4"/>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="5"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="5"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44"/>
@@ -1955,7 +2123,7 @@
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="5"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47"/>
@@ -1969,111 +2137,125 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="66.8173076923077" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.9134615384615" customWidth="1"/>
+    <col min="3" max="3" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="17" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="409.5" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" ht="309" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="409.5" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="409.5" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" ht="409.5" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="32" ht="20.4" spans="1:1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="5"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1">
       <c r="A41"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="5"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43"/>
@@ -2082,7 +2264,7 @@
       <c r="A44"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="5"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46"/>

--- a/职业生涯规划6个代码.xlsx
+++ b/职业生涯规划6个代码.xlsx
@@ -33,18 +33,18 @@
     <t>低</t>
   </si>
   <si>
-    <t xml:space="preserve">🟢 R 0-15（低）—— 你更喜欢思考，而不是动手实践
+    <t>🟢 R 0-15（低）—— 你更喜欢思考，而不是动手实践
 ✅ 你的特点：
-你更倾向于抽象思考、分析问题，而不是直接去实践。
-你可能更喜欢理论、概念、研究，而不是机械操作、设备管理或体力劳动。
-你更适应安静、知识性、创造性的环境，而不是需要大量手工操作的工作。
+🧠 你更倾向于 抽象思考、分析问题，而不是直接去实践。
+📚 你可能更喜欢 理论、概念、研究，而不是 机械操作、设备管理或体力劳动。
+🎨 你更适应 安静、知识性、创造性的环境，而不是需要大量手工操作的工作。
 ⚠️ 可能的挑战：
-你可能不太喜欢需要大量动手或体力操作的工作，比如维修、装配、机械制造等。
-如果工作过于依赖实践、技术操作，而不是逻辑思考和策略规划，你可能会感到不适应。
-你更喜欢用头脑解决问题，而不是直接用手去尝试。
+🔧 你可能不太喜欢需要大量动手或体力操作的工作，比如 维修、装配、机械制造 等。
+📉 如果工作过于依赖 实践、技术操作，而不是 逻辑思考和策略规划，你可能会感到不适应。
+🖥️ 你更喜欢用 头脑解决问题，而不是直接用手去尝试。
 📌 大白话总结：
-你更喜欢想清楚、分析透彻再行动，而不是直接上手尝试。你对手工操作、机械设备、工具维修、户外作业等可能不太感兴趣，更倾向于思考、规划、构建理论框架，而不是亲自动手去做一件事情。
-</t>
+🧐 你更喜欢 想清楚、分析透彻再行动，而不是直接上手尝试。
+🔍 对 手工操作、机械设备、工具维修、户外作业 可能不太感兴趣，更倾向于 思考、规划、构建理论框架，而不是亲自动手去做一件事情。</t>
   </si>
   <si>
     <t>R 低（0-15） → 你更喜欢思考，而不是动手实践，适合抽象、逻辑、规划性工作。</t>
@@ -55,15 +55,17 @@
   <si>
     <t>🟡 R 15-20（中等）—— 你喜欢动手，但更倾向于结合思考
 ✅ 你的特点：
-你既能动手操作，也能接受思考和规划，喜欢实践和理论相结合的方式。
-你可能不会特别喜欢单纯的体力活或技术活，但你不抗拒实践和执行，尤其是当它们和你的兴趣相关时。
-你更喜欢在规则之内进行操作，而不是完全依赖动手解决问题。
+🛠️ 你既能动手操作，也能接受 思考和规划，喜欢 实践和理论相结合 的方式。
+🎯 你可能不会特别喜欢 单纯的体力活或技术活，但你不抗拒实践和执行，尤其是当它们和你的 兴趣相关 时。
+📏 你更喜欢在 规则之内进行操作，而不是完全依赖动手解决问题。
 ⚠️ 可能的挑战：
-你可能不喜欢过于复杂、纯技术性的操作，比如长时间机械操作或高强度体力劳动。
-你适合有思考成分的实践工作，而不是完全依靠动手的职业。
-如果工作过于偏理论，你可能会觉得缺乏实践感，但如果过于动手，你也可能会觉得不够挑战性。
+⚙️ 你可能不喜欢 过于复杂、纯技术性的操作，比如长时间机械操作或高强度体力劳动。
+💡 你适合 有思考成分的实践工作，而不是完全依靠动手的职业。
+⚖️ 如果工作 过于偏理论，你可能会觉得缺乏实践感；但如果 过于动手，你也可能会觉得不够挑战性。
 📌 大白话总结：
-你既可以亲自动手实践，也能接受一定程度的思考和规划。你不会是那种特别喜欢机械维修、体力劳动的人，但你也不排斥实际操作。如果一份工作既需要实践又有一定的逻辑思考，你会更感兴趣，比如产品设计、工程管理、实验操作等。</t>
+🔄 你既可以 亲自动手实践，也能接受 一定程度的思考和规划。
+🔧 你不会是那种特别喜欢 机械维修、体力劳动 的人，但你也不排斥实际操作。
+🚀 如果一份工作 既需要实践又有一定的逻辑思考，你会更感兴趣，比如 产品设计、工程管理、实验操作 等。</t>
   </si>
   <si>
     <t>R 中等（15-20） → 你能接受动手操作，但更喜欢结合思考，适合理论+实践结合的工作。</t>
@@ -74,15 +76,17 @@
   <si>
     <t>🔴 R 20以上（高）—— 你是个行动派，喜欢通过实践解决问题
 ✅ 你的特点：
-你喜欢直接动手，而不是光靠理论思考，更愿意通过实践找答案。
-你适合需要实际操作、执行能力强的工作，比如技术操作、机械维修、产品制造、户外工作、建筑工程等。
-你更喜欢结果导向的任务，觉得**“做”比“想”更重要**，更倾向于边做边调整，而不是先想好所有细节再开始。
+🔨 你喜欢 直接动手，而不是光靠理论思考，更愿意 通过实践找答案。
+⚙️ 你适合 需要实际操作、执行能力强 的工作，比如 技术操作、机械维修、产品制造、户外工作、建筑工程 等。
+🚀 你更喜欢 结果导向的任务，觉得 “做”比“想”更重要，更倾向于 边做边调整，而不是 先想好所有细节再开始。
 ⚠️ 可能的挑战：
-你可能对理论性、过度抽象的工作不太感兴趣，比如纯学术研究、哲学、数据分析等。
-如果一份工作没有实际动手操作的部分，而是纯粹的会议、规划、管理，你可能会觉得缺乏成就感。
-你有时候可能会太快行动，而忽略了长远规划，需要注意平衡。
+📖 你可能对 理论性、过度抽象 的工作不太感兴趣，比如 纯学术研究、哲学、数据分析 等。
+📝 如果一份工作 没有实际动手操作 的部分，而是纯粹的 会议、规划、管理，你可能会觉得 缺乏成就感。
+⏳ 你有时候可能会 太快行动，而忽略了 长远规划，需要注意 平衡。
 📌 大白话总结：
-你是个典型的行动派，比起坐在那里思考一个问题，你更喜欢直接动手试试看。你喜欢有实际成果的工作，而不是纯粹的概念推导，比如建筑、维修、工程、技术操作、运动训练等。你不喜欢一份工作只有理论而没有实际操作，更喜欢在真实环境中摸索、解决问题、看到结果。</t>
+🏗️ 你是个 典型的行动派，比起坐在那里思考一个问题，你更喜欢 直接动手试试看。
+🔧 你喜欢 有实际成果的工作，而不是纯粹的概念推导，比如 建筑、维修、工程、技术操作、运动训练 等。
+🌍 你不喜欢 一份工作只有理论而没有实际操作，更喜欢在 真实环境中摸索、解决问题、看到结果。</t>
   </si>
   <si>
     <t>R 高（20以上） → 你是个行动派，喜欢动手解决问题，适合技术、实践、执行类工作。</t>
@@ -90,15 +94,17 @@
   <si>
     <t>🟢 I 0-15（低）—— 你更喜欢实践，而不是抽象思考
 ✅ 你的特点：
-你更喜欢直接行动，而不是长时间坐着研究一个概念。
-你可能对理论分析、数据计算、科学推导不太感兴趣，更喜欢实际应用。
-你更适合具体、实用、可见的事情，而不是纯粹的知识探索。
+🚀 你更喜欢 直接行动，而不是长时间坐着研究一个概念。
+🔧 你可能对 理论分析、数据计算、科学推导 不太感兴趣，更喜欢 实际应用。
+🛠️ 你更适合 具体、实用、可见 的事情，而不是纯粹的 知识探索。
 ⚠️ 可能的挑战：
-如果工作需要长时间分析数据、研究理论、阅读学术论文，你可能会觉得枯燥。
-你更擅长解决现实问题，而不是深入研究问题背后的逻辑。
-你可能会觉得**“过度思考”浪费时间，更愿意动手去试，而不是先研究透彻再做**。
+📊 如果工作需要 长时间分析数据、研究理论、阅读学术论文，你可能会觉得枯燥。
+🧩 你更擅长 解决现实问题，而不是 深入研究问题背后的逻辑。
+⏩ 你可能会觉得 “过度思考”浪费时间，更愿意动手去试，而不是先研究透彻再做。
 📌 大白话总结：
-你不太喜欢整天坐在书桌前研究复杂的理论，也不太享受长时间的数据分析。对你来说，直接做、看到结果比慢慢研究更重要。你更喜欢实用的知识，而不是纯粹的逻辑推理，如果一份工作需要你大量思考、推演，而没有实际操作，你可能会觉得无聊。</t>
+🏃‍♂️ 你不太喜欢整天坐在书桌前研究 复杂的理论，也不太享受 长时间的数据分析。
+🔍 对你来说，直接做、看到结果 比 慢慢研究 更重要。
+⚙️ 你更喜欢 实用的知识，而不是纯粹的 逻辑推理。如果一份工作需要你 大量思考、推演，而没有 实际操作，你可能会觉得无聊。</t>
   </si>
   <si>
     <t>I 低（0-15） → 你更喜欢实践，而不是抽象思考，更适合直接操作、动手执行的工作。</t>
@@ -106,15 +112,17 @@
   <si>
     <t>🟡 I 15-20（中等）—— 你喜欢思考，但更倾向于结合实践
 ✅ 你的特点：
-你对研究和分析有一定兴趣，但你更希望这些知识可以直接应用。
-你不会特别沉迷于纯理论推导，但你也不抗拒深入思考和探索。
-你可能喜欢用逻辑思考解决现实问题，而不是单纯为了学术研究。
+🧐 你对 研究和分析 有一定兴趣，但更希望这些知识能 直接应用。
+🔍 你不会特别沉迷于 纯理论推导，但你也不抗拒 深入思考和探索。
+📊 你可能喜欢用 逻辑思考 解决现实问题，而不是单纯为了 学术研究。
 ⚠️ 可能的挑战：
-你可能不喜欢过度抽象、难以理解的理论问题，更喜欢和现实世界有联系的研究。
-你适合逻辑+实践结合的任务，比如数据分析、工程管理、策略制定，而不是纯粹的科学研究。
-如果一份工作太过偏向动手实践，而不需要思考，你也会觉得缺乏挑战性。
+📚 你可能不喜欢 过度抽象、难以理解 的理论问题，更喜欢和 现实世界有联系 的研究。
+⚙️ 你适合 逻辑 + 实践结合 的任务，比如 数据分析、工程管理、策略制定，而不是 纯粹的科学研究。
+⏳ 如果一份工作 太过偏向动手实践，而不需要思考，你也会觉得缺乏挑战性。
 📌 大白话总结：
-你喜欢思考，但不喜欢空想，更愿意用分析能力去解决实际问题。你不是那种天天钻进书本里研究学术理论的人，但如果一件事需要动脑分析，你还是愿意去想清楚。你更适合一边思考一边实践的工作，而不是纯粹的理论研究或者完全没有思考空间的执行型工作。</t>
+🤔 你喜欢思考，但不喜欢 空想，更愿意 用分析能力去解决实际问题。
+📖 你不是那种 天天钻进书本里研究学术理论 的人，但如果一件事需要 动脑分析，你还是愿意去想清楚。
+⚖️ 你更适合 一边思考一边实践 的工作，而不是 纯粹的理论研究 或者 完全没有思考空间的执行型工作。</t>
   </si>
   <si>
     <t>I 中等（15-20） → 你喜欢思考，但更倾向于结合实践，适合逻辑+应用型的职业。</t>
@@ -122,15 +130,17 @@
   <si>
     <t>🔴 I 20以上（高）—— 你是一个深度思考者，喜欢研究和推理
 ✅ 你的特点：
-你喜欢深入研究问题的本质，而不仅仅是表面现象，愿意花时间钻研复杂的概念。
-你擅长逻辑分析、数据推理、理论推导，喜欢通过思考找到更优的解决方案。
-你可能会对数学、科学、哲学、编程、统计、策略分析等领域感兴趣，喜欢推演和预测。
+🧠 你喜欢 深入研究问题的本质，而不仅仅是表面现象，愿意花时间 钻研复杂的概念。
+📊 你擅长 逻辑分析、数据推理、理论推导，喜欢通过 思考找到更优的解决方案。
+📚 你可能会对 数学、科学、哲学、编程、统计、策略分析 等领域感兴趣，喜欢 推演和预测。
 ⚠️ 可能的挑战：
-你可能会思考太多，而行动太少，容易陷入“分析瘫痪”，想得太多而迟迟不做决定。
-你可能会对现实中的琐碎事务感到不耐烦，更喜欢抽象概念，而不是动手操作。
-你可能不喜欢过于机械化、重复性高的工作，更倾向于需要思考和解决难题的职业。
+⏳ 你可能会 思考太多，而行动太少，容易陷入 “分析瘫痪”，想得太多而迟迟不做决定。
+🛠️ 你可能会对 现实中的琐碎事务感到不耐烦，更喜欢 抽象概念，而不是动手操作。
+🔄 你可能不喜欢 过于机械化、重复性高 的工作，更倾向于 需要思考和解决难题 的职业。
 📌 大白话总结：
-你是一个喜欢钻研、擅长逻辑分析的人，比起直接动手做事，你更喜欢先想清楚、找到最佳方案，再去执行。你可能对数据、理论、科学推导、复杂系统感兴趣，喜欢从深层逻辑上理解事物，而不仅仅是接受表面的结论。如果工作没有足够的思考空间，你可能会觉得无聊。</t>
+🤔 你是一个 喜欢钻研、擅长逻辑分析 的人，比起 直接动手做事，你更喜欢 先想清楚、找到最佳方案，再去执行。
+🔍 你可能对 数据、理论、科学推导、复杂系统 感兴趣，喜欢 从深层逻辑上理解事物，而不仅仅是接受表面的结论。
+🧩 如果工作 没有足够的思考空间，你可能会觉得无聊。</t>
   </si>
   <si>
     <t>I 高（20以上） → 你是一个深度思考者，喜欢研究和推理，适合数据分析、科学研究、编程、策略制定等工作</t>
@@ -138,15 +148,17 @@
   <si>
     <t>🟢 A 0-15（低）—— 你更喜欢结构化、务实的工作，而不是创意和艺术表达
 ✅ 你的特点：
-你更喜欢逻辑清晰、有规则可循的事物，而不是开放式、富有创造力的任务。
-你更倾向于理性分析，而不是凭直觉或情感创作，喜欢有明确方法、可预测性的工作。
-你可能不太关注艺术、美学、创意表达，更在意事物的实用性和逻辑性。
+📏 你更喜欢 逻辑清晰、有规则可循 的事物，而不是 开放式、富有创造力 的任务。
+🧠 你更倾向于 理性分析，而不是凭 直觉或情感创作，喜欢 有明确方法、可预测性的工作。
+🔍 你可能不太关注 艺术、美学、创意表达，更在意 事物的实用性和逻辑性。
 ⚠️ 可能的挑战：
-如果工作需要你即兴创作、创新、自由发挥，你可能会感到不适应或没兴趣。
-你可能会觉得艺术类、设计类、文学类的工作缺乏明确的标准，过于主观。
-你可能更擅长执行、分析、管理，而不是创意策划、艺术创作。
+🎭 如果工作需要你 即兴创作、创新、自由发挥，你可能会感到 不适应或没兴趣。
+🎨 你可能会觉得 艺术类、设计类、文学类的工作 缺乏明确的标准，过于主观。
+📊 你可能更擅长 执行、分析、管理，而不是 创意策划、艺术创作。
 📌 大白话总结：
-你不太喜欢天马行空的创意工作，更喜欢有清晰结构和明确方向的任务。你更适合稳定、逻辑清晰、规则明确的环境，而不是需要大量自由发挥的艺术领域。如果让你做设计、绘画、写作，你可能会觉得“不知道从哪下手”或者“太随意没标准”。</t>
+🛠️ 你不太喜欢 天马行空的创意工作，更喜欢 有清晰结构和明确方向的任务。
+🏢 你更适合 稳定、逻辑清晰、规则明确 的环境，而不是 需要大量自由发挥的艺术领域。
+✍️ 如果让你做 设计、绘画、写作，你可能会觉得 “不知道从哪下手” 或者 “太随意没标准”。</t>
   </si>
   <si>
     <t>A 低（0-15） → 你更喜欢结构化、务实的工作，而不是创意和艺术表达，适合逻辑清晰、规则明确的任务。</t>
@@ -154,15 +166,17 @@
   <si>
     <t>🟡 A 15-20（中等）—— 你喜欢有一定创意，但更倾向于在规则内创新
 ✅ 你的特点：
-你有一定的创造力和审美能力，但不喜欢完全没有规则的艺术创作。
-你更适合在已有框架下进行改进和优化，而不是完全自由发挥。
-你可能对设计、美感、个性化表达感兴趣，但不会把它作为核心动力。
+🎨 你有一定的 创造力和审美能力，但不喜欢 完全没有规则 的艺术创作。
+📐 你更适合在 已有框架下进行改进和优化，而不是完全自由发挥。
+💡 你可能对 设计、美感、个性化表达 感兴趣，但不会把它作为 核心动力。
 ⚠️ 可能的挑战：
-你可能不喜欢过于抽象、纯粹依赖情感的创作，更希望有一些可执行的标准。
-你适合创意+逻辑结合的工作，比如商业设计、市场策划，而不是完全开放的艺术创作。
-如果工作太过于死板、缺乏灵活性，你可能会觉得缺乏乐趣。
+🎭 你可能不喜欢 过于抽象、纯粹依赖情感 的创作，更希望有一些 可执行的标准。
+📊 你适合 创意+逻辑结合 的工作，比如 商业设计、市场策划，而不是 完全开放的艺术创作。
+🔄 如果工作 太过于死板、缺乏灵活性，你可能会觉得 缺乏乐趣。
 📌 大白话总结：
-你喜欢有点创意的工作，但不能太自由、太混乱。如果给你一个有框架的任务，比如让你优化一个设计、改进一个方案，你会觉得很有意思。但如果让你从零开始、完全自由创作，你可能会觉得“没头绪”或者“不知道做到什么程度才算好”。</t>
+🖌️ 你喜欢 有点创意的工作，但不能 太自由、太混乱。
+🛠️ 如果给你一个 有框架的任务，比如让你 优化一个设计、改进一个方案，你会觉得很有意思。
+🤷‍♂️ 但如果让你 从零开始、完全自由创作，你可能会觉得 “没头绪” 或者 “不知道做到什么程度才算好”。</t>
   </si>
   <si>
     <t>A 中等（15-20） → 你喜欢有一定创意，但更倾向于在规则内创新，适合结合逻辑和创造力的岗位。</t>
@@ -170,15 +184,18 @@
   <si>
     <t>🔴 A 20以上（高）—— 你是一个有创造力的人，喜欢自由表达和艺术创新
 ✅ 你的特点：
-你喜欢个性化表达，讨厌千篇一律的东西，希望用创意和美感影响世界。
-你擅长视觉、音乐、文学、戏剧、策划等需要创造力的工作，比起执行标准流程，你更希望有发挥空间。
-你更倾向于用直觉、感受来做决策，而不是完全依赖逻辑和规则。
+🎭 你喜欢 个性化表达，讨厌 千篇一律 的东西，希望用 创意和美感影响世界。
+🎨 你擅长 视觉、音乐、文学、戏剧、策划 等需要创造力的工作，比起 执行标准流程，你更希望有 发挥空间。
+💡 你更倾向于用 直觉、感受 来做决策，而不是完全依赖 逻辑和规则。
 ⚠️ 可能的挑战：
-你可能不太喜欢高度结构化、规则严格的环境，如果工作过于机械化，你可能会觉得乏味。
-你可能更关注情感和表达，而不是逻辑和实用性，有时候会因为追求完美而拖延。
-你可能需要找到既能自由发挥、又能产生实际价值的工作，否则可能会觉得“有创意但没有用”。
+📏 你可能不太喜欢 高度结构化、规则严格 的环境，如果工作 过于机械化，你可能会觉得乏味。
+🤯 你可能更关注 情感和表达，而不是 逻辑和实用性，有时候会因为 追求完美而拖延。
+🔍 你可能需要找到 既能自由发挥、又能产生实际价值 的工作，否则可能会觉得 “有创意但没有用”。
 📌 大白话总结：
-你是个有创造力、喜欢表达自己的人，不喜欢被条条框框限制。你可能会对设计、写作、音乐、戏剧、绘画感兴趣，喜欢让世界变得更美或更有趣。如果工作只是一成不变、重复执行，没有发挥空间，你可能会很快失去动力。你希望做的事情能有个人风格，而不是标准化的流水线工作。</t>
+🖌️ 你是个 有创造力、喜欢表达自己 的人，不喜欢被 条条框框 限制。
+🎭 你可能会对 设计、写作、音乐、戏剧、绘画 感兴趣，喜欢让世界变得 更美或更有趣。
+⏳ 如果工作 只是一成不变、重复执行，没有发挥空间，你可能会很快失去动力。
+🚀 你希望做的事情能 有个人风格，而不是 标准化的流水线工作。</t>
   </si>
   <si>
     <t>A 高（20以上） → 你是一个有创造力的人，喜欢自由表达和艺术创新，适合设计、策划、艺术类工作。</t>
@@ -186,15 +203,17 @@
   <si>
     <t>🟢 S 0-15（低）—— 你更喜欢独立工作，而不是频繁社交
 ✅ 你的特点：
-你更喜欢独立完成任务，而不是依赖团队协作。
-你在社交方面可能更偏向功能性交流，而不是享受人际互动本身。
-你可能觉得与人打交道是一种必要手段，而不是你的兴趣所在。
+🧑‍💻 你更喜欢 独立完成任务，而不是依赖 团队协作。
+🔍 你在社交方面可能更偏向 功能性交流，而不是 享受人际互动本身。
+🎯 你可能觉得 与人打交道是一种必要手段，而不是你的兴趣所在。
 ⚠️ 可能的挑战：
-如果工作需要大量的社交、沟通、客户互动，你可能会觉得疲惫。
-你可能更喜欢逻辑思维、个人创造，而不是依赖团队决策和人际关系。
-如果团队过于注重情感交流，而不是高效执行，你可能会觉得不适应。
+📞 如果工作需要 大量的社交、沟通、客户互动，你可能会觉得 疲惫。
+🧠 你可能更喜欢 逻辑思维、个人创造，而不是依赖 团队决策和人际关系。
+💬 如果团队过于注重 情感交流，而不是 高效执行，你可能会觉得 不适应。
 📌 大白话总结：
-你更喜欢一个人独立完成任务，不太依赖社交来获得能量。你可以处理必要的交流，但如果工作需要全天和人打交道、开会、社交互动，你可能会觉得累。你喜欢高效、目标导向的沟通，而不是纯粹为了建立关系而聊天。</t>
+🚀 你更喜欢 一个人独立完成任务，不太依赖社交来获得能量。
+🗂️ 你可以处理 必要的交流，但如果工作需要 全天和人打交道、开会、社交互动，你可能会觉得 累。
+📊 你喜欢 高效、目标导向的沟通，而不是 纯粹为了建立关系而聊天。</t>
   </si>
   <si>
     <t>S 低（0-15） → 你更喜欢独立工作，而不是频繁社交，适合技术、逻辑、个人创造类工作。</t>
@@ -202,15 +221,16 @@
   <si>
     <t>🟡 S 15-20（中等）—— 你喜欢社交，但更倾向于有目的的沟通
 ✅ 你的特点：
-你不抗拒社交，但也不依赖社交来获得能量，更倾向于有意义的交流。
-你在需要合作的环境下能够很好地适应，但你也可以独立完成工作。
-你擅长建立和维护人际关系，但不会刻意去社交。
+🤝 你不抗拒社交，但也不依赖社交来获得能量，更倾向于 有意义的交流。
+🛠️ 你在 需要合作的环境下能够很好地适应，但你也可以 独立完成工作。
+🔗 你擅长 建立和维护人际关系，但不会 刻意去社交。
 ⚠️ 可能的挑战：
-如果工作太过孤立，没有任何团队合作，你可能会觉得缺乏互动。
-你适合需要一定社交，但仍然有专业技能支持的岗位，比如教育、咨询、管理，而不是完全依赖人际关系的销售类工作。
-你不喜欢过度的情感消耗型社交工作，比如心理咨询、社工等需要长期与人建立深度情感链接的职业可能会让你感到压力。
+🏢 如果工作 太过孤立，没有任何团队合作，你可能会觉得 缺乏互动。
+📊 你适合 需要一定社交，但仍然有专业技能支持 的岗位，比如 教育、咨询、管理，而不是 完全依赖人际关系的销售类工作。
+💬 你不喜欢 过度的情感消耗型社交工作，比如 心理咨询、社工 等需要 长期与人建立深度情感链接 的职业可能会让你感到压力。
 📌 大白话总结：
-你不排斥社交，也能和团队愉快合作，但你更喜欢有目标、有意义的沟通，而不是单纯为了社交而社交。你既能自己完成任务，也能与他人配合，但如果工作完全没有社交互动，你可能会觉得有点孤单。</t>
+🎯 你不排斥社交，也能和 团队愉快合作，但你更喜欢 有目标、有意义的沟通，而不是 单纯为了社交而社交。
+👥 你既能 自己完成任务，也能 与他人配合，但如果工作 完全没有社交互动，你可能会觉得 有点孤单。</t>
   </si>
   <si>
     <t>S 中等（15-20） → 你喜欢社交，但更倾向于有目的的沟通，适合社交+专业结合的职业。</t>
@@ -218,15 +238,18 @@
   <si>
     <t>🔴 S 20以上（高）—— 你是一个社交型人才，喜欢与人互动
 ✅ 你的特点：
-你喜欢和人打交道，愿意花时间建立人际关系，并在交流中获得能量。
-你擅长理解他人的需求、提供帮助，并能很好地处理人际关系。
-你更喜欢团队合作，而不是单独完成任务，喜欢在互动中创造价值。
+🤝 你喜欢和人 打交道，愿意花时间 建立人际关系，并在交流中 获得能量。
+💬 你擅长 理解他人的需求、提供帮助，并能很好地 处理人际关系。
+👥 你更喜欢 团队合作，而不是单独完成任务，喜欢在 互动中创造价值。
 ⚠️ 可能的挑战：
-如果工作过于独立、没有社交互动，你可能会觉得缺乏动力。
-你可能更关注人，而不是纯粹的任务，有时候容易因为人际关系而影响决策。
-你可能不喜欢完全数据、技术、研究导向的工作，而更偏向沟通、协调、服务类的职业。
+🏢 如果工作 过于独立、没有社交互动，你可能会觉得 缺乏动力。
+📌 你可能更关注 人，而不是 纯粹的任务，有时候容易因为 人际关系而影响决策。
+📊 你可能不喜欢 完全数据、技术、研究导向 的工作，而更偏向 沟通、协调、服务类 的职业。
 📌 大白话总结：
-你是个天生的社交型人才，喜欢和人互动，愿意帮助别人。比起一个人闷头干活，你更喜欢在交流、合作中推动事情发展。如果让你长期做独立、没有社交的工作，你可能会觉得闷得慌。你更喜欢团队氛围好、需要互动和沟通的环境，而不是完全依赖个人努力的岗位。</t>
+🎉 你是个 天生的社交型人才，喜欢和人互动，愿意 帮助别人。
+🔄 比起 一个人闷头干活，你更喜欢在 交流、合作中推动事情发展。
+🏆 如果让你 长期做独立、没有社交的工作，你可能会觉得 闷得慌。
+🌍 你更喜欢 团队氛围好、需要互动和沟通的环境，而不是 完全依赖个人努力的岗位。</t>
   </si>
   <si>
     <t>S 高（20以上） → 你是一个社交型人才，喜欢与人互动，适合团队协作、沟通、帮助他人的岗位。</t>
@@ -234,15 +257,17 @@
   <si>
     <t>🟢 E 0-15（低）—— 你更喜欢执行，而不是领导
 ✅ 你的特点：
-你更倾向于专注完成自己的任务，而不是去管理或影响他人。
-你可能不太喜欢竞争激烈、充满挑战的环境，更喜欢稳定、有序的工作方式。
-你更关注自己的专业能力，而不是如何带领团队、制定战略或推动决策。
+🎯 你更倾向于 专注完成自己的任务，而不是去 管理或影响他人。
+⚖️ 你可能不太喜欢 竞争激烈、充满挑战 的环境，更喜欢 稳定、有序的工作方式。
+🔍 你更关注 自己的专业能力，而不是如何 带领团队、制定战略或推动决策。
 ⚠️ 可能的挑战：
-如果工作需要你主动推动项目、管理团队，你可能会觉得压力大或不自在。
-你可能不喜欢谈判、说服、争取资源，而更喜欢安静、专注的工作环境。
-如果环境太过竞争性，你可能会觉得不适应，甚至有些抗拒。
+📊 如果工作需要你 主动推动项目、管理团队，你可能会觉得 压力大或不自在。
+💬 你可能不喜欢 谈判、说服、争取资源，而更喜欢 安静、专注的工作环境。
+🚫 如果环境 太过竞争性，你可能会觉得 不适应，甚至有些抗拒。
 📌 大白话总结：
-你更喜欢安稳地做自己擅长的事情，而不是去争夺话语权或主导团队。如果让你做管理、带领团队，你可能会觉得压力大，甚至不太愿意承担责任。你更喜欢在自己的领域里深耕，而不是去思考如何影响他人、制定商业策略或者竞争获胜。</t>
+🛠️ 你更喜欢 安稳地做自己擅长的事情，而不是去 争夺话语权或主导团队。
+🔄 如果让你做 管理、带领团队，你可能会觉得 压力大，甚至不太愿意承担责任。
+📚 你更喜欢在 自己的领域里深耕，而不是去思考 如何影响他人、制定商业策略或者竞争获胜。</t>
   </si>
   <si>
     <t>E 低（0-15） → 你更喜欢执行，而不是领导，适合稳定、专业性强、不需要竞争和管理的岗位。</t>
@@ -250,15 +275,17 @@
   <si>
     <t>🟡 E 15-20（中等）—— 你有一定领导意识，但更喜欢在专业领域发光
 ✅ 你的特点：
-你不排斥承担一定的管理责任，但你更喜欢通过专业能力来获得影响力，而不是单纯依靠权力和决策力。
-你可以在特定情况下承担领导角色，但不会主动去争取权力，更喜欢在自己擅长的领域发挥作用。
-你适合在团队中担任关键角色，而不是完全主导所有决策。
+🌟 你不排斥承担一定的 管理责任，但更喜欢通过 专业能力获得影响力，而不是单纯依靠 权力和决策力。
+🛠️ 你可以在特定情况下 承担领导角色，但不会 主动去争取权力，更喜欢在自己 擅长的领域发挥作用。
+🎯 你适合在团队中担任 关键角色，而不是 完全主导所有决策。
 ⚠️ 可能的挑战：
-如果工作完全没有自主权，而只是被动执行，你可能会觉得缺乏成长空间。
-你可能不喜欢极端竞争性环境，但也不希望自己的努力被埋没。
-如果需要全职做领导管理，而不是结合专业能力发挥影响力，你可能会感到不适应。
+📌 如果工作 完全没有自主权，而只是被动执行，你可能会觉得 缺乏成长空间。
+⚖️ 你可能不喜欢 极端竞争性环境，但也不希望 自己的努力被埋没。
+👔 如果需要 全职做领导管理，而不是结合 专业能力发挥影响力，你可能会感到 不适应。
 📌 大白话总结：
-你不排斥领导别人，但也不想把全部精力都放在竞争和管理上。你更喜欢用自己的专业能力获得影响力，而不是单纯依靠“管理职务”去发挥作用。如果你处在一个有自主权但不需要过度竞争的环境，你会更有动力。</t>
+🔍 你不排斥 领导别人，但也不想把全部精力都放在 竞争和管理 上。
+🏆 你更喜欢 用自己的专业能力获得影响力，而不是单纯依靠 “管理职务” 去发挥作用。
+🚀 如果你处在一个 有自主权但不需要过度竞争 的环境，你会 更有动力。</t>
   </si>
   <si>
     <t>E 中等（15-20） → 你有一定领导意识，但更喜欢在专业领域发光，适合技术+管理结合的岗位。</t>
@@ -266,15 +293,18 @@
   <si>
     <t>🔴 E 20以上（高）—— 你是一个目标驱动者，喜欢影响他人
 ✅ 你的特点：
-你喜欢主动推动事情发展，而不是被动等待指令，更愿意承担责任、主导决策。
-你擅长影响别人、调动资源、制定战略，在团队中更倾向于带领而不是被带领。
-你对商业、市场、管理、谈判、决策有一定的兴趣，喜欢有挑战、有竞争的环境。
+🚀 你喜欢 主动推动事情发展，而不是 被动等待指令，更愿意 承担责任、主导决策。
+🎯 你擅长 影响别人、调动资源、制定战略，在团队中更倾向于 带领而不是被带领。
+📈 你对 商业、市场、管理、谈判、决策 有一定的兴趣，喜欢 有挑战、有竞争的环境。
 ⚠️ 可能的挑战：
-你可能不喜欢被严格管理，喜欢有更大的自主权和决策权，否则可能会觉得受限制。
-你可能更关注目标和结果，而不是过程，在某些情况下可能会忽略细节或团队情绪。
-你适合快节奏、高挑战的环境，但如果工作太过稳定、缺乏竞争，你可能会觉得无聊或缺乏动力。
+🔓 你可能 不喜欢被严格管理，喜欢有 更大的自主权和决策权，否则可能会觉得 受限制。
+📊 你可能更关注 目标和结果，而不是 过程，在某些情况下可能会忽略 细节或团队情绪。
+⚡ 你适合 快节奏、高挑战的环境，但如果工作 太过稳定、缺乏竞争，你可能会觉得 无聊或缺乏动力。
 📌 大白话总结：
-你是一个天生的领导者，喜欢挑战、喜欢竞争，更喜欢主导而不是被动执行。你希望自己的工作能带来影响，而不仅仅是完成任务，你更愿意制定策略、推动发展，而不是只是听从安排。如果工作缺乏挑战或你无法主导，你可能会感到不耐烦或失去动力。</t>
+🏆 你是一个 天生的领导者，喜欢 挑战、喜欢竞争，更喜欢 主导而不是被动执行。
+🌍 你希望自己的工作能 带来影响，而不仅仅是 完成任务。
+📢 你更愿意 制定策略、推动发展，而不是只是 听从安排。
+⚠️ 如果工作 缺乏挑战 或 你无法主导，你可能会感到 不耐烦或失去动力。</t>
   </si>
   <si>
     <t>E 高（20以上） → 你是一个目标驱动者，喜欢影响他人，适合管理、商业、市场、创业、战略规划类岗位。</t>
@@ -282,15 +312,17 @@
   <si>
     <t>🟢 C 0-15（低）—— 你喜欢灵活自由，而不是条条框框
 ✅ 你的特点：
-你更喜欢灵活、多变的环境，而不是被固定的规则限制。
-你更倾向于创造新方法，而不是按照既定流程执行任务。
-你可能更喜欢探索、创新，而不是在稳定的体系中工作。
+🌍 你更喜欢 灵活、多变的环境，而不是被 固定的规则限制。
+🛠️ 你更倾向于 创造新方法，而不是按照 既定流程执行任务。
+🚀 你可能更喜欢 探索、创新，而不是在 稳定的体系中工作。
 ⚠️ 可能的挑战：
-你可能不太喜欢严格的规则、重复性的工作，如果一份工作需要大量细节管理、数据录入、流程执行，你可能会觉得枯燥。
-你更适合开放性、探索性的任务，而不是高度结构化的环境。
-如果工作过于死板、没有灵活性，你可能会觉得束缚和缺乏创造力。
+📑 你可能不太喜欢 严格的规则、重复性的工作，如果一份工作需要 大量细节管理、数据录入、流程执行，你可能会觉得 枯燥。
+🔍 你更适合 开放性、探索性的任务，而不是 高度结构化的环境。
+⏳ 如果工作 过于死板、没有灵活性，你可能会觉得 束缚和缺乏创造力。
 📌 大白话总结：
-你不喜欢被规矩束缚，更喜欢自由发挥。如果一个工作需要严格按照规定流程来做，不能有任何创新，你可能会觉得很无聊。你更希望有变化、挑战和灵活度，而不是日复一日地执行同样的任务。</t>
+🎭 你不喜欢被规矩束缚，更喜欢 自由发挥。
+🔄 如果一个工作需要 严格按照规定流程来做，不能有任何创新，你可能会觉得 很无聊。
+⚡ 你更希望有 变化、挑战和灵活度，而不是 日复一日地执行同样的任务。</t>
   </si>
   <si>
     <t>C 低（0-15） → 你喜欢灵活自由，而不是条条框框，适合探索性、创新性、灵活性强的岗位。</t>
@@ -298,15 +330,17 @@
   <si>
     <t>🟡 C 15-20（中等）—— 你喜欢秩序，但也需要一定的灵活性
 ✅ 你的特点：
-你可以适应有一定规则和结构的环境，但你希望这些规则能有调整空间。
-你喜欢有条理的工作方式，但不喜欢过度死板的流程，希望在稳定和灵活之间找到平衡。
-你擅长管理信息、整理数据，但也希望有一定的决策权，而不是完全按照指令执行。
+📋 你可以适应 有一定规则和结构 的环境，但希望这些规则能 有调整空间。
+⚖️ 你喜欢 有条理的工作方式，但不喜欢 过度死板的流程，希望在 稳定和灵活之间找到平衡。
+📊 你擅长 管理信息、整理数据，但也希望有一定的 决策权，而不是 完全按照指令执行。
 ⚠️ 可能的挑战：
-如果工作太随意、完全没有框架，你可能会觉得混乱，没有方向。
-如果工作过于程序化、只需要重复执行，没有创新空间，你可能会觉得缺乏挑战。
-你适合有结构但允许一定调整和优化的工作，而不是极端的“完全自由”或“完全死板”环境。
+🔄 如果工作 太随意、完全没有框架，你可能会觉得 混乱，没有方向。
+📑 如果工作 过于程序化、只需要重复执行，没有创新空间，你可能会觉得 缺乏挑战。
+⚙️ 你适合 有结构但允许一定调整和优化 的工作，而不是极端的 “完全自由” 或 “完全死板” 环境。
 📌 大白话总结：
-你喜欢有秩序但不喜欢死板，希望既有规则可循，又能根据情况调整。如果工作完全没有方向，你会觉得焦虑，但如果工作毫无变化，你又会觉得单调。你适合既有流程管理，又允许适度优化的岗位，比如项目管理、运营管理、数据分析等。</t>
+📌 你喜欢 有秩序但不喜欢死板，希望既 有规则可循，又能 根据情况调整。
+🧩 如果工作 完全没有方向，你会觉得 焦虑，但如果工作 毫无变化，你又会觉得 单调。
+🛠️ 你适合 既有流程管理，又允许适度优化 的岗位，比如 项目管理、运营管理、数据分析 等。</t>
   </si>
   <si>
     <t>C 中等（15-20） → 你喜欢秩序，但也需要一定的灵活性，适合既有规则又允许优化的工作。</t>
@@ -314,15 +348,17 @@
   <si>
     <t>🔴 C 20以上（高）—— 你是一个高度条理化的人，喜欢稳定有序
 ✅ 你的特点：
-你喜欢有计划、有结构的环境，擅长整理、归纳、执行任务。
-你更倾向于按照标准流程执行，而不是随意变更工作方式，喜欢有明确的规则和系统。
-你擅长数据管理、信息分类、行政事务、文档整理等条理性工作。
+📋 你喜欢 有计划、有结构的环境，擅长 整理、归纳、执行任务。
+🛠️ 你更倾向于按照 标准流程执行，而不是随意变更工作方式，喜欢 有明确的规则和系统。
+📑 你擅长 数据管理、信息分类、行政事务、文档整理 等 条理性工作。
 ⚠️ 可能的挑战：
-如果环境太过混乱、缺乏清晰的规定，你可能会感到焦虑或不适应。
-你可能不太喜欢高度创新、变化频繁、需要灵活应对的工作，更偏向有条理的任务。
-你可能更适合稳定、流程化、可预测的环境，而不是高度开放、依赖随机性的工作。
+🔄 如果环境 太过混乱、缺乏清晰的规定，你可能会感到 焦虑或不适应。
+📌 你可能不太喜欢 高度创新、变化频繁、需要灵活应对 的工作，更偏向 有条理的任务。
+🏢 你可能更适合 稳定、流程化、可预测 的环境，而不是 高度开放、依赖随机性的工作。
 📌 大白话总结：
-你是一个喜欢规则、有条理的人，喜欢按照计划一步步执行。如果一个工作太随意、没有固定流程、总是变动，你可能会觉得压力很大。你更适合稳定、有清晰要求的环境，比如数据管理、财务、行政、档案管理等工作，而不是需要频繁调整、随时变换策略的岗位。</t>
+📏 你是一个 喜欢规则、有条理 的人，喜欢 按照计划一步步执行。
+📊 如果一个工作 太随意、没有固定流程、总是变动，你可能会觉得 压力很大。
+🗂️ 你更适合 稳定、有清晰要求的环境，比如 数据管理、财务、行政、档案管理 等工作，而不是 需要频繁调整、随时变换策略的岗位。</t>
   </si>
   <si>
     <t>C 高（20以上） → 你是一个高度条理化的人，喜欢稳定有序，适合数据管理、行政、财务、流程优化等岗位。</t>
@@ -957,12 +993,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1509,15 +1542,15 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C4" sqref="C$1:C$1048576"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="32.7692307692308" customWidth="1"/>
     <col min="2" max="2" width="48.0769230769231" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" style="2"/>
+    <col min="3" max="3" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
@@ -1527,7 +1560,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1538,7 +1571,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1549,7 +1582,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1560,7 +1593,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1575,15 +1608,15 @@
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C4" sqref="C$1:C$1048576"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="68.2692307692308" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.9134615384615" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" style="2"/>
+    <col min="3" max="3" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
@@ -1593,18 +1626,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1615,83 +1648,83 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="32" ht="20.4" spans="1:1">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1">
       <c r="A41"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43"/>
@@ -1700,7 +1733,7 @@
       <c r="A44"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46"/>
@@ -1716,15 +1749,15 @@
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="70.0192307692308" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1057692307692" customWidth="1"/>
-    <col min="3" max="3" width="22.1346153846154" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.1346153846154" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
@@ -1734,18 +1767,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1756,83 +1789,83 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="33" ht="20.4" spans="1:1">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44"/>
@@ -1841,7 +1874,7 @@
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47"/>
@@ -1857,15 +1890,15 @@
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="65.2211538461538" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.7019230769231" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" style="2"/>
+    <col min="3" max="3" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
@@ -1875,18 +1908,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1897,83 +1930,83 @@
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" ht="20.4" spans="1:1">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="33" ht="20.4" spans="1:1">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44"/>
@@ -1982,7 +2015,7 @@
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47"/>
@@ -1998,15 +2031,15 @@
   <sheetPr/>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView zoomScale="72" zoomScaleNormal="72" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="63.7788461538462" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.2788461538462" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" style="2"/>
+    <col min="3" max="3" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
@@ -2016,18 +2049,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2038,83 +2071,83 @@
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="33" ht="20.4" spans="1:1">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1">
       <c r="A34"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
     </row>
     <row r="42" spans="1:1">
       <c r="A42"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:1">
       <c r="A44"/>
@@ -2123,7 +2156,7 @@
       <c r="A45"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:1">
       <c r="A47"/>
@@ -2139,15 +2172,15 @@
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="66.8173076923077" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.9134615384615" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" style="2"/>
+    <col min="3" max="3" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
@@ -2157,18 +2190,18 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="309" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2179,83 +2212,83 @@
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="12" ht="20.4" spans="1:1">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="22" ht="20.4" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="32" ht="20.4" spans="1:1">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1">
       <c r="A41"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:1">
       <c r="A43"/>
@@ -2264,7 +2297,7 @@
       <c r="A44"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:1">
       <c r="A46"/>
